--- a/Test Cases/Preethi/Test Case- Care Desk.xlsx
+++ b/Test Cases/Preethi/Test Case- Care Desk.xlsx
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>MED_CD_TC_013</t>
-  </si>
-  <si>
-    <t>Verify "Edit" functionality in vitals in "Template" Menu is working correctly</t>
   </si>
   <si>
     <t>Precondition: Patients having Vital entry details is required</t>
@@ -2133,6 +2130,9 @@
   </si>
   <si>
     <t>http://mediwarecloud.com/mediwareqc</t>
+  </si>
+  <si>
+    <t>Verify "Edit" functionality in vitals in "Transaction" Menu is working correctly</t>
   </si>
 </sst>
 </file>
@@ -2617,9 +2617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD914"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2731,11 +2731,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="29" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="4"/>
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="15"/>
@@ -2931,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>33</v>
@@ -2946,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="15"/>
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>68</v>
@@ -2991,10 +2991,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>605</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>606</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="15"/>
@@ -3011,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>47</v>
@@ -3026,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="15"/>
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>68</v>
@@ -3072,10 +3072,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H25" s="11"/>
       <c r="J25" s="4"/>
@@ -3090,7 +3090,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H26" s="11"/>
       <c r="J26" s="4"/>
@@ -3125,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>52</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H30" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="15"/>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>68</v>
@@ -3187,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H33" s="11"/>
       <c r="J33" s="4"/>
@@ -3234,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>52</v>
@@ -3249,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H38" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="15"/>
@@ -3277,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>68</v>
@@ -3291,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="15"/>
@@ -3324,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>61</v>
@@ -3340,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -15647,7 +15647,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>68</v>
@@ -15663,10 +15663,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="15"/>
@@ -15683,7 +15683,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>61</v>
@@ -15698,10 +15698,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="15"/>
@@ -15743,10 +15743,10 @@
         <v>4</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="15"/>
@@ -15756,7 +15756,7 @@
         <v>5</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>64</v>
@@ -15769,10 +15769,10 @@
         <v>6</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="15"/>
@@ -15789,7 +15789,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>66</v>
@@ -15804,10 +15804,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H59" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="15"/>
@@ -15900,10 +15900,10 @@
         <v>15</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="15"/>
@@ -15915,10 +15915,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H68" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="15"/>
@@ -15941,10 +15941,10 @@
         <v>3</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="15"/>
@@ -15954,10 +15954,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="15"/>
@@ -15967,7 +15967,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="15"/>
@@ -15977,7 +15977,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="15"/>
@@ -15987,10 +15987,10 @@
         <v>8</v>
       </c>
       <c r="F74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="15"/>
@@ -16007,7 +16007,7 @@
         <v>15</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>33</v>
@@ -16023,10 +16023,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H77" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -28329,10 +28329,10 @@
         <v>3</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="15"/>
@@ -28342,7 +28342,7 @@
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="15"/>
@@ -28352,10 +28352,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="15"/>
@@ -28372,7 +28372,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>33</v>
@@ -28387,10 +28387,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H84" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H84" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="15"/>
@@ -28414,10 +28414,10 @@
         <v>3</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="15"/>
@@ -28427,7 +28427,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="15"/>
@@ -28437,10 +28437,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="15"/>
@@ -28457,10 +28457,10 @@
         <v>15</v>
       </c>
       <c r="D90" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="15"/>
@@ -28472,10 +28472,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H91" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H91" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="15"/>
@@ -28498,7 +28498,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="15"/>
@@ -28508,10 +28508,10 @@
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="15"/>
@@ -28522,16 +28522,16 @@
     </row>
     <row r="96" spans="1:11" ht="45">
       <c r="A96" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="15"/>
@@ -28543,10 +28543,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H97" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H97" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="15"/>
@@ -28569,7 +28569,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="15"/>
@@ -28579,10 +28579,10 @@
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="15"/>
@@ -28593,16 +28593,16 @@
     </row>
     <row r="102" spans="1:11" ht="30">
       <c r="A102" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="15"/>
@@ -28614,10 +28614,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H103" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="15"/>
@@ -28627,7 +28627,7 @@
         <v>2</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>22</v>
@@ -28640,10 +28640,10 @@
         <v>3</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="15"/>
@@ -28654,16 +28654,16 @@
     </row>
     <row r="107" spans="1:11" ht="30">
       <c r="A107" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="15"/>
@@ -28675,10 +28675,10 @@
         <v>1</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H108" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H108" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="15"/>
@@ -28688,7 +28688,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>22</v>
@@ -28701,7 +28701,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="15"/>
@@ -28711,10 +28711,10 @@
         <v>4</v>
       </c>
       <c r="F111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="15"/>
@@ -28725,10 +28725,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="15"/>
@@ -28738,10 +28738,10 @@
         <v>6</v>
       </c>
       <c r="F113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="15"/>
@@ -28751,10 +28751,10 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H114" s="3"/>
       <c r="J114" s="4"/>
@@ -28766,16 +28766,16 @@
     </row>
     <row r="116" spans="1:11" ht="30">
       <c r="A116" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="15"/>
@@ -28787,10 +28787,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H117" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H117" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="15"/>
@@ -28800,7 +28800,7 @@
         <v>2</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>22</v>
@@ -28813,10 +28813,10 @@
         <v>3</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="15"/>
@@ -28826,10 +28826,10 @@
         <v>4</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="15"/>
@@ -28839,10 +28839,10 @@
         <v>5</v>
       </c>
       <c r="F121" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="15"/>
@@ -28853,10 +28853,10 @@
         <v>6</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="15"/>
@@ -28866,7 +28866,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="15"/>
@@ -28876,7 +28876,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="15"/>
@@ -28886,10 +28886,10 @@
         <v>9</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="15"/>
@@ -28899,10 +28899,10 @@
         <v>10</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="15"/>
@@ -28912,10 +28912,10 @@
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="15"/>
@@ -28930,16 +28930,16 @@
     </row>
     <row r="130" spans="1:11" ht="30">
       <c r="A130" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="15"/>
@@ -28951,10 +28951,10 @@
         <v>1</v>
       </c>
       <c r="F131" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H131" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H131" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="15"/>
@@ -28964,7 +28964,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>22</v>
@@ -28977,10 +28977,10 @@
         <v>3</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="15"/>
@@ -28990,10 +28990,10 @@
         <v>4</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="15"/>
@@ -29003,10 +29003,10 @@
         <v>5</v>
       </c>
       <c r="F135" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="15"/>
@@ -29017,16 +29017,16 @@
     </row>
     <row r="137" spans="1:11" ht="30">
       <c r="A137" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="15"/>
@@ -29038,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H138" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H138" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="15"/>
@@ -29051,7 +29051,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>22</v>
@@ -29064,10 +29064,10 @@
         <v>3</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="15"/>
@@ -29077,10 +29077,10 @@
         <v>4</v>
       </c>
       <c r="F141" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="15"/>
@@ -29090,10 +29090,10 @@
         <v>5</v>
       </c>
       <c r="F142" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="J142" s="4"/>
       <c r="K142" s="15"/>
@@ -29104,16 +29104,16 @@
     </row>
     <row r="144" spans="1:11" ht="30">
       <c r="A144" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" s="15"/>
@@ -29125,10 +29125,10 @@
         <v>1</v>
       </c>
       <c r="F145" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H145" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H145" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" s="15"/>
@@ -29138,7 +29138,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>22</v>
@@ -29151,10 +29151,10 @@
         <v>3</v>
       </c>
       <c r="F147" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" s="15"/>
@@ -29164,7 +29164,7 @@
         <v>4</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J148" s="4"/>
       <c r="K148" s="15"/>
@@ -29174,10 +29174,10 @@
         <v>5</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="15"/>
@@ -29188,16 +29188,16 @@
     </row>
     <row r="151" spans="1:11" ht="30">
       <c r="A151" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" s="15"/>
@@ -29209,10 +29209,10 @@
         <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H152" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H152" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" s="15"/>
@@ -29222,7 +29222,7 @@
         <v>2</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>22</v>
@@ -29235,10 +29235,10 @@
         <v>3</v>
       </c>
       <c r="F154" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="J154" s="4"/>
       <c r="K154" s="15"/>
@@ -29248,10 +29248,10 @@
         <v>4</v>
       </c>
       <c r="F155" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" s="15"/>
@@ -29261,10 +29261,10 @@
         <v>5</v>
       </c>
       <c r="F156" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="15"/>
@@ -29274,7 +29274,7 @@
         <v>6</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="15"/>
@@ -29284,10 +29284,10 @@
         <v>7</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="15"/>
@@ -29298,16 +29298,16 @@
     </row>
     <row r="160" spans="1:11" ht="30">
       <c r="A160" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="15"/>
@@ -29319,10 +29319,10 @@
         <v>1</v>
       </c>
       <c r="F161" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H161" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H161" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="15"/>
@@ -29332,7 +29332,7 @@
         <v>2</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>22</v>
@@ -29345,10 +29345,10 @@
         <v>3</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="15"/>
@@ -29358,10 +29358,10 @@
         <v>4</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="15"/>
@@ -29371,10 +29371,10 @@
         <v>5</v>
       </c>
       <c r="F165" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="15"/>
@@ -29384,7 +29384,7 @@
         <v>6</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="15"/>
@@ -29394,7 +29394,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="15"/>
@@ -29404,7 +29404,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="15"/>
@@ -29414,7 +29414,7 @@
         <v>9</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="15"/>
@@ -29424,10 +29424,10 @@
         <v>10</v>
       </c>
       <c r="F170" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="15"/>
@@ -29437,10 +29437,10 @@
         <v>11</v>
       </c>
       <c r="F171" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="15"/>
@@ -29451,16 +29451,16 @@
     </row>
     <row r="173" spans="1:11" ht="30">
       <c r="A173" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="15"/>
@@ -29472,10 +29472,10 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H174" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H174" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="15"/>
@@ -29485,7 +29485,7 @@
         <v>2</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>22</v>
@@ -29498,10 +29498,10 @@
         <v>3</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="15"/>
@@ -29511,10 +29511,10 @@
         <v>4</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="15"/>
@@ -29524,10 +29524,10 @@
         <v>5</v>
       </c>
       <c r="F178" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="15"/>
@@ -29537,7 +29537,7 @@
         <v>6</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="15"/>
@@ -29547,10 +29547,10 @@
         <v>7</v>
       </c>
       <c r="F180" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="15"/>
@@ -29561,16 +29561,16 @@
     </row>
     <row r="182" spans="1:11" ht="30">
       <c r="A182" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J182" s="4"/>
       <c r="K182" s="15"/>
@@ -29582,10 +29582,10 @@
         <v>1</v>
       </c>
       <c r="F183" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H183" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H183" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="15"/>
@@ -29596,7 +29596,7 @@
         <v>2</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>22</v>
@@ -29611,10 +29611,10 @@
         <v>3</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H185" s="3"/>
       <c r="J185" s="4"/>
@@ -29626,10 +29626,10 @@
         <v>4</v>
       </c>
       <c r="F186" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="H186" s="3"/>
       <c r="J186" s="4"/>
@@ -29641,10 +29641,10 @@
         <v>5</v>
       </c>
       <c r="F187" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G187" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="H187" s="3"/>
       <c r="J187" s="4"/>
@@ -29656,7 +29656,7 @@
         <v>6</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H188" s="3"/>
       <c r="J188" s="4"/>
@@ -29668,10 +29668,10 @@
         <v>7</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H189" s="3"/>
       <c r="J189" s="4"/>
@@ -29686,17 +29686,17 @@
     </row>
     <row r="191" spans="1:11" ht="30">
       <c r="A191" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H191" s="3"/>
       <c r="J191" s="4"/>
@@ -29709,10 +29709,10 @@
         <v>1</v>
       </c>
       <c r="F192" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H192" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H192" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="15"/>
@@ -29723,7 +29723,7 @@
         <v>2</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>22</v>
@@ -29738,10 +29738,10 @@
         <v>3</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H194" s="3"/>
       <c r="J194" s="4"/>
@@ -29753,10 +29753,10 @@
         <v>4</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H195" s="3"/>
       <c r="J195" s="4"/>
@@ -29768,10 +29768,10 @@
         <v>5</v>
       </c>
       <c r="F196" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G196" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="H196" s="3"/>
       <c r="J196" s="4"/>
@@ -29783,7 +29783,7 @@
         <v>6</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H197" s="3"/>
       <c r="J197" s="4"/>
@@ -29795,7 +29795,7 @@
         <v>7</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H198" s="3"/>
       <c r="J198" s="4"/>
@@ -29807,10 +29807,10 @@
         <v>8</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H199" s="3"/>
       <c r="J199" s="4"/>
@@ -29822,17 +29822,17 @@
     </row>
     <row r="201" spans="1:11" ht="30">
       <c r="A201" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H201" s="3"/>
       <c r="J201" s="4"/>
@@ -29845,10 +29845,10 @@
         <v>1</v>
       </c>
       <c r="F202" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H202" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H202" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J202" s="4"/>
       <c r="K202" s="15"/>
@@ -29859,7 +29859,7 @@
         <v>2</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>22</v>
@@ -29874,10 +29874,10 @@
         <v>3</v>
       </c>
       <c r="F204" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H204" s="3"/>
       <c r="J204" s="4"/>
@@ -29889,10 +29889,10 @@
         <v>4</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H205" s="3"/>
       <c r="J205" s="4"/>
@@ -29904,10 +29904,10 @@
         <v>5</v>
       </c>
       <c r="F206" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G206" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H206" s="3"/>
       <c r="J206" s="4"/>
@@ -29919,7 +29919,7 @@
         <v>6</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H207" s="3"/>
       <c r="J207" s="4"/>
@@ -29931,10 +29931,10 @@
         <v>7</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H208" s="3"/>
       <c r="J208" s="4"/>
@@ -29949,17 +29949,17 @@
     </row>
     <row r="210" spans="1:11" ht="30">
       <c r="A210" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H210" s="3"/>
       <c r="J210" s="4"/>
@@ -29972,10 +29972,10 @@
         <v>1</v>
       </c>
       <c r="F211" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H211" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H211" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J211" s="4"/>
       <c r="K211" s="15"/>
@@ -29986,7 +29986,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>22</v>
@@ -30001,10 +30001,10 @@
         <v>3</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H213" s="3"/>
       <c r="J213" s="4"/>
@@ -30016,10 +30016,10 @@
         <v>4</v>
       </c>
       <c r="F214" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G214" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="H214" s="3"/>
       <c r="J214" s="4"/>
@@ -30031,17 +30031,17 @@
     </row>
     <row r="216" spans="1:11" ht="30">
       <c r="A216" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J216" s="4"/>
       <c r="K216" s="15"/>
@@ -30053,10 +30053,10 @@
         <v>1</v>
       </c>
       <c r="F217" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H217" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H217" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J217" s="4"/>
       <c r="K217" s="15"/>
@@ -30066,7 +30066,7 @@
         <v>2</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>22</v>
@@ -30079,10 +30079,10 @@
         <v>3</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="15"/>
@@ -30092,7 +30092,7 @@
         <v>4</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="15"/>
@@ -30103,16 +30103,16 @@
     </row>
     <row r="222" spans="1:11" ht="60">
       <c r="A222" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="J222" s="4"/>
       <c r="K222" s="15"/>
@@ -30124,10 +30124,10 @@
         <v>1</v>
       </c>
       <c r="F223" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H223" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H223" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J223" s="4"/>
       <c r="K223" s="15"/>
@@ -30140,7 +30140,7 @@
         <v>21</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J224" s="4"/>
       <c r="K224" s="15"/>
@@ -30150,10 +30150,10 @@
         <v>3</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J225" s="4"/>
       <c r="K225" s="15"/>
@@ -30163,10 +30163,10 @@
         <v>4</v>
       </c>
       <c r="F226" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J226" s="4"/>
       <c r="K226" s="15"/>
@@ -30176,10 +30176,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G227" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="J227" s="4"/>
       <c r="K227" s="15"/>
@@ -30189,7 +30189,7 @@
         <v>6</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J228" s="4"/>
       <c r="K228" s="15"/>
@@ -30199,10 +30199,10 @@
         <v>7</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J229" s="4"/>
       <c r="K229" s="15"/>
@@ -30213,22 +30213,22 @@
     </row>
     <row r="231" spans="1:11" ht="45">
       <c r="A231" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E231" s="5">
         <v>1</v>
       </c>
       <c r="F231" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H231" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H231" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J231" s="4"/>
       <c r="K231" s="15"/>
@@ -30243,7 +30243,7 @@
         <v>21</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J232" s="4"/>
       <c r="K232" s="15"/>
@@ -30253,10 +30253,10 @@
         <v>3</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J233" s="4"/>
       <c r="K233" s="15"/>
@@ -30266,10 +30266,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G234" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J234" s="4"/>
       <c r="K234" s="15"/>
@@ -30279,10 +30279,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="15"/>
@@ -30293,22 +30293,22 @@
     </row>
     <row r="237" spans="1:11" ht="45">
       <c r="A237" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E237" s="5">
         <v>1</v>
       </c>
       <c r="F237" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H237" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H237" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="15"/>
@@ -30323,7 +30323,7 @@
         <v>21</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J238" s="4"/>
       <c r="K238" s="15"/>
@@ -30333,10 +30333,10 @@
         <v>3</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J239" s="4"/>
       <c r="K239" s="15"/>
@@ -30346,10 +30346,10 @@
         <v>4</v>
       </c>
       <c r="F240" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G240" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="15"/>
@@ -30359,10 +30359,10 @@
         <v>5</v>
       </c>
       <c r="F241" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G241" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="J241" s="4"/>
       <c r="K241" s="15"/>
@@ -30372,10 +30372,10 @@
         <v>6</v>
       </c>
       <c r="F242" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G242" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="J242" s="4"/>
       <c r="K242" s="15"/>
@@ -30386,22 +30386,22 @@
     </row>
     <row r="244" spans="1:11" ht="45">
       <c r="A244" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E244" s="5">
         <v>1</v>
       </c>
       <c r="F244" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H244" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H244" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J244" s="4"/>
       <c r="K244" s="15"/>
@@ -30416,7 +30416,7 @@
         <v>21</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J245" s="4"/>
       <c r="K245" s="15"/>
@@ -30426,10 +30426,10 @@
         <v>2</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="15"/>
@@ -30439,10 +30439,10 @@
         <v>3</v>
       </c>
       <c r="F247" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G247" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="15"/>
@@ -30452,10 +30452,10 @@
         <v>4</v>
       </c>
       <c r="F248" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G248" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="J248" s="4"/>
       <c r="K248" s="15"/>
@@ -30466,22 +30466,22 @@
     </row>
     <row r="250" spans="1:11" ht="45">
       <c r="A250" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E250" s="5">
         <v>1</v>
       </c>
       <c r="F250" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H250" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H250" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J250" s="4"/>
       <c r="K250" s="15"/>
@@ -30496,7 +30496,7 @@
         <v>21</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J251" s="4"/>
       <c r="K251" s="15"/>
@@ -30506,10 +30506,10 @@
         <v>3</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J252" s="4"/>
       <c r="K252" s="15"/>
@@ -30519,10 +30519,10 @@
         <v>4</v>
       </c>
       <c r="F253" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G253" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J253" s="4"/>
       <c r="K253" s="15"/>
@@ -30532,10 +30532,10 @@
         <v>5</v>
       </c>
       <c r="F254" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G254" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="J254" s="4"/>
       <c r="K254" s="15"/>
@@ -30545,10 +30545,10 @@
         <v>6</v>
       </c>
       <c r="F255" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G255" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="J255" s="4"/>
       <c r="K255" s="15"/>
@@ -30559,22 +30559,22 @@
     </row>
     <row r="257" spans="1:11" ht="45">
       <c r="A257" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E257" s="5">
         <v>1</v>
       </c>
       <c r="F257" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H257" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H257" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J257" s="4"/>
       <c r="K257" s="15"/>
@@ -30589,7 +30589,7 @@
         <v>21</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J258" s="4"/>
       <c r="K258" s="15"/>
@@ -30599,10 +30599,10 @@
         <v>3</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J259" s="4"/>
       <c r="K259" s="15"/>
@@ -30612,10 +30612,10 @@
         <v>4</v>
       </c>
       <c r="F260" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G260" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J260" s="4"/>
       <c r="K260" s="15"/>
@@ -30625,10 +30625,10 @@
         <v>5</v>
       </c>
       <c r="F261" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G261" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="J261" s="4"/>
       <c r="K261" s="15"/>
@@ -30639,22 +30639,22 @@
     </row>
     <row r="263" spans="1:11" ht="45">
       <c r="A263" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E263" s="5">
         <v>1</v>
       </c>
       <c r="F263" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H263" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H263" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J263" s="4"/>
       <c r="K263" s="15"/>
@@ -30669,7 +30669,7 @@
         <v>21</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J264" s="4"/>
       <c r="K264" s="15"/>
@@ -30679,10 +30679,10 @@
         <v>3</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J265" s="4"/>
       <c r="K265" s="15"/>
@@ -30692,10 +30692,10 @@
         <v>4</v>
       </c>
       <c r="F266" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G266" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J266" s="4"/>
       <c r="K266" s="15"/>
@@ -30705,10 +30705,10 @@
         <v>5</v>
       </c>
       <c r="F267" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G267" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="J267" s="4"/>
       <c r="K267" s="15"/>
@@ -30718,10 +30718,10 @@
         <v>6</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J268" s="4"/>
       <c r="K268" s="15"/>
@@ -30732,22 +30732,22 @@
     </row>
     <row r="270" spans="1:11" ht="30">
       <c r="A270" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E270" s="5">
         <v>1</v>
       </c>
       <c r="F270" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H270" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H270" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="15"/>
@@ -30762,7 +30762,7 @@
         <v>21</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="15"/>
@@ -30772,10 +30772,10 @@
         <v>3</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J272" s="4"/>
       <c r="K272" s="15"/>
@@ -30785,10 +30785,10 @@
         <v>4</v>
       </c>
       <c r="F273" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G273" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J273" s="4"/>
       <c r="K273" s="15"/>
@@ -30798,10 +30798,10 @@
         <v>5</v>
       </c>
       <c r="F274" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G274" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="J274" s="4"/>
       <c r="K274" s="15"/>
@@ -30812,22 +30812,22 @@
     </row>
     <row r="276" spans="1:11" ht="45">
       <c r="A276" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E276" s="5">
         <v>1</v>
       </c>
       <c r="F276" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H276" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H276" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J276" s="4"/>
       <c r="K276" s="15"/>
@@ -30842,7 +30842,7 @@
         <v>21</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J277" s="4"/>
       <c r="K277" s="15"/>
@@ -30852,10 +30852,10 @@
         <v>3</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J278" s="4"/>
       <c r="K278" s="15"/>
@@ -30865,10 +30865,10 @@
         <v>4</v>
       </c>
       <c r="F279" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G279" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="J279" s="4"/>
       <c r="K279" s="15"/>
@@ -30878,10 +30878,10 @@
         <v>5</v>
       </c>
       <c r="F280" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G280" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="J280" s="4"/>
       <c r="K280" s="15"/>
@@ -30891,10 +30891,10 @@
         <v>6</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J281" s="4"/>
       <c r="K281" s="15"/>
@@ -30905,16 +30905,16 @@
     </row>
     <row r="283" spans="1:11" ht="30">
       <c r="A283" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D283" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="J283" s="4"/>
       <c r="K283" s="15"/>
@@ -30926,10 +30926,10 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H284" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H284" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J284" s="4"/>
       <c r="K284" s="15"/>
@@ -30942,7 +30942,7 @@
         <v>21</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J285" s="4"/>
       <c r="K285" s="15"/>
@@ -30952,10 +30952,10 @@
         <v>3</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J286" s="4"/>
       <c r="K286" s="15"/>
@@ -30965,10 +30965,10 @@
         <v>4</v>
       </c>
       <c r="F287" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G287" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="J287" s="4"/>
       <c r="K287" s="15"/>
@@ -30978,7 +30978,7 @@
         <v>5</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J288" s="4"/>
       <c r="K288" s="15"/>
@@ -30988,10 +30988,10 @@
         <v>6</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J289" s="4"/>
       <c r="K289" s="15"/>
@@ -31002,16 +31002,16 @@
     </row>
     <row r="291" spans="1:11" ht="45">
       <c r="A291" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D291" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F291" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="J291" s="4"/>
       <c r="K291" s="15"/>
@@ -31023,10 +31023,10 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H292" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H292" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J292" s="4"/>
       <c r="K292" s="15"/>
@@ -31039,7 +31039,7 @@
         <v>21</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J293" s="4"/>
       <c r="K293" s="15"/>
@@ -31049,10 +31049,10 @@
         <v>3</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J294" s="4"/>
       <c r="K294" s="15"/>
@@ -31062,10 +31062,10 @@
         <v>4</v>
       </c>
       <c r="F295" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G295" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="J295" s="4"/>
       <c r="K295" s="15"/>
@@ -31075,7 +31075,7 @@
         <v>5</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J296" s="4"/>
       <c r="K296" s="15"/>
@@ -31085,10 +31085,10 @@
         <v>6</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J297" s="4"/>
       <c r="K297" s="15"/>
@@ -31099,13 +31099,13 @@
     </row>
     <row r="299" spans="1:11" ht="45">
       <c r="A299" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>66</v>
@@ -31120,10 +31120,10 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H300" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H300" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J300" s="4"/>
       <c r="K300" s="15"/>
@@ -31136,7 +31136,7 @@
         <v>21</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J301" s="4"/>
       <c r="K301" s="15"/>
@@ -31146,10 +31146,10 @@
         <v>3</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J302" s="4"/>
       <c r="K302" s="15"/>
@@ -31159,10 +31159,10 @@
         <v>4</v>
       </c>
       <c r="F303" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G303" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G303" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="J303" s="4"/>
       <c r="K303" s="15"/>
@@ -31172,10 +31172,10 @@
         <v>5</v>
       </c>
       <c r="F304" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G304" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="G304" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="J304" s="4"/>
       <c r="K304" s="15"/>
@@ -31186,13 +31186,13 @@
     </row>
     <row r="306" spans="1:11" ht="45">
       <c r="A306" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>66</v>
@@ -31207,10 +31207,10 @@
         <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H307" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H307" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J307" s="4"/>
       <c r="K307" s="15"/>
@@ -31223,7 +31223,7 @@
         <v>21</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J308" s="4"/>
       <c r="K308" s="15"/>
@@ -31233,10 +31233,10 @@
         <v>3</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J309" s="4"/>
       <c r="K309" s="15"/>
@@ -31246,10 +31246,10 @@
         <v>4</v>
       </c>
       <c r="F310" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G310" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G310" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="J310" s="4"/>
       <c r="K310" s="15"/>
@@ -31259,10 +31259,10 @@
         <v>5</v>
       </c>
       <c r="F311" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G311" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="G311" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="J311" s="4"/>
       <c r="K311" s="15"/>
@@ -31273,16 +31273,16 @@
     </row>
     <row r="313" spans="1:11" ht="45">
       <c r="A313" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J313" s="4"/>
       <c r="K313" s="15"/>
@@ -31294,10 +31294,10 @@
         <v>1</v>
       </c>
       <c r="F314" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H314" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H314" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J314" s="4"/>
       <c r="K314" s="15"/>
@@ -31310,7 +31310,7 @@
         <v>21</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J315" s="4"/>
       <c r="K315" s="15"/>
@@ -31320,10 +31320,10 @@
         <v>3</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J316" s="4"/>
       <c r="K316" s="15"/>
@@ -31333,10 +31333,10 @@
         <v>4</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J317" s="4"/>
       <c r="K317" s="15"/>
@@ -31346,7 +31346,7 @@
         <v>5</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J318" s="4"/>
       <c r="K318" s="15"/>
@@ -31356,10 +31356,10 @@
         <v>6</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G319" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J319" s="4"/>
       <c r="K319" s="15"/>
@@ -31370,16 +31370,16 @@
     </row>
     <row r="321" spans="1:11" ht="45">
       <c r="A321" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D321" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F321" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="J321" s="4"/>
       <c r="K321" s="15"/>
@@ -31391,10 +31391,10 @@
         <v>1</v>
       </c>
       <c r="F322" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H322" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H322" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J322" s="4"/>
       <c r="K322" s="15"/>
@@ -31407,7 +31407,7 @@
         <v>21</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J323" s="4"/>
       <c r="K323" s="15"/>
@@ -31417,10 +31417,10 @@
         <v>3</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J324" s="4"/>
       <c r="K324" s="15"/>
@@ -31430,10 +31430,10 @@
         <v>4</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J325" s="4"/>
       <c r="K325" s="15"/>
@@ -31443,10 +31443,10 @@
         <v>5</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J326" s="4"/>
       <c r="K326" s="15"/>
@@ -31457,16 +31457,16 @@
     </row>
     <row r="328" spans="1:11" ht="45">
       <c r="A328" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J328" s="4"/>
       <c r="K328" s="15"/>
@@ -31478,10 +31478,10 @@
         <v>1</v>
       </c>
       <c r="F329" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H329" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H329" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J329" s="4"/>
       <c r="K329" s="15"/>
@@ -31494,7 +31494,7 @@
         <v>21</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J330" s="4"/>
       <c r="K330" s="15"/>
@@ -31504,10 +31504,10 @@
         <v>3</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J331" s="4"/>
       <c r="K331" s="15"/>
@@ -31517,10 +31517,10 @@
         <v>4</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J332" s="4"/>
       <c r="K332" s="15"/>
@@ -31530,10 +31530,10 @@
         <v>5</v>
       </c>
       <c r="F333" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G333" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G333" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="J333" s="4"/>
       <c r="K333" s="15"/>
@@ -31548,13 +31548,13 @@
     </row>
     <row r="336" spans="1:11" ht="30">
       <c r="A336" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>66</v>
@@ -31569,10 +31569,10 @@
         <v>1</v>
       </c>
       <c r="F337" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H337" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H337" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J337" s="4"/>
       <c r="K337" s="15"/>
@@ -31585,7 +31585,7 @@
         <v>21</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J338" s="4"/>
       <c r="K338" s="15"/>
@@ -31595,10 +31595,10 @@
         <v>3</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J339" s="4"/>
       <c r="K339" s="15"/>
@@ -31608,10 +31608,10 @@
         <v>4</v>
       </c>
       <c r="F340" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G340" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="J340" s="4"/>
       <c r="K340" s="15"/>
@@ -31622,16 +31622,16 @@
     </row>
     <row r="342" spans="1:11" ht="30">
       <c r="A342" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D342" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F342" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="J342" s="4"/>
       <c r="K342" s="15"/>
@@ -31643,10 +31643,10 @@
         <v>1</v>
       </c>
       <c r="F343" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H343" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H343" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J343" s="4"/>
       <c r="K343" s="15"/>
@@ -31659,7 +31659,7 @@
         <v>21</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J344" s="4"/>
       <c r="K344" s="15"/>
@@ -31669,10 +31669,10 @@
         <v>3</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J345" s="4"/>
       <c r="K345" s="15"/>
@@ -31682,10 +31682,10 @@
         <v>4</v>
       </c>
       <c r="F346" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G346" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="J346" s="4"/>
       <c r="K346" s="15"/>
@@ -31695,10 +31695,10 @@
         <v>5</v>
       </c>
       <c r="F347" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G347" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="G347" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="J347" s="4"/>
       <c r="K347" s="15"/>
@@ -31709,16 +31709,16 @@
     </row>
     <row r="349" spans="1:11" ht="45">
       <c r="A349" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J349" s="4"/>
       <c r="K349" s="15"/>
@@ -31730,10 +31730,10 @@
         <v>1</v>
       </c>
       <c r="F350" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H350" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H350" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J350" s="4"/>
       <c r="K350" s="15"/>
@@ -31746,7 +31746,7 @@
         <v>21</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J351" s="4"/>
       <c r="K351" s="15"/>
@@ -31756,10 +31756,10 @@
         <v>3</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J352" s="4"/>
       <c r="K352" s="15"/>
@@ -31769,10 +31769,10 @@
         <v>4</v>
       </c>
       <c r="F353" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G353" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="J353" s="4"/>
       <c r="K353" s="15"/>
@@ -31782,10 +31782,10 @@
         <v>5</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J354" s="4"/>
       <c r="K354" s="15"/>
@@ -31796,16 +31796,16 @@
     </row>
     <row r="356" spans="1:11" ht="30">
       <c r="A356" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J356" s="4"/>
       <c r="K356" s="15"/>
@@ -31817,10 +31817,10 @@
         <v>1</v>
       </c>
       <c r="F357" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H357" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H357" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J357" s="4"/>
       <c r="K357" s="15"/>
@@ -31833,7 +31833,7 @@
         <v>21</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J358" s="4"/>
       <c r="K358" s="15"/>
@@ -31843,10 +31843,10 @@
         <v>3</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J359" s="4"/>
       <c r="K359" s="15"/>
@@ -31856,10 +31856,10 @@
         <v>4</v>
       </c>
       <c r="F360" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G360" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="G360" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="J360" s="4"/>
       <c r="K360" s="15"/>
@@ -31869,10 +31869,10 @@
         <v>5</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J361" s="4"/>
       <c r="K361" s="15"/>
@@ -31887,16 +31887,16 @@
     </row>
     <row r="364" spans="1:11" ht="45">
       <c r="A364" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D364" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F364" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="J364" s="4"/>
       <c r="K364" s="15"/>
@@ -31908,10 +31908,10 @@
         <v>1</v>
       </c>
       <c r="F365" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H365" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H365" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J365" s="4"/>
       <c r="K365" s="15"/>
@@ -31924,7 +31924,7 @@
         <v>21</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J366" s="4"/>
       <c r="K366" s="15"/>
@@ -31934,10 +31934,10 @@
         <v>2</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J367" s="4"/>
       <c r="K367" s="15"/>
@@ -31947,7 +31947,7 @@
         <v>3</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J368" s="4"/>
       <c r="K368" s="15"/>
@@ -31957,10 +31957,10 @@
         <v>4</v>
       </c>
       <c r="F369" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G369" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="G369" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="J369" s="4"/>
       <c r="K369" s="15"/>
@@ -31971,16 +31971,16 @@
     </row>
     <row r="371" spans="1:11" ht="60">
       <c r="A371" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F371" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J371" s="4"/>
       <c r="K371" s="15"/>
@@ -31992,10 +31992,10 @@
         <v>1</v>
       </c>
       <c r="F372" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H372" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H372" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J372" s="4"/>
       <c r="K372" s="15"/>
@@ -32008,7 +32008,7 @@
         <v>21</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J373" s="4"/>
       <c r="K373" s="15"/>
@@ -32018,10 +32018,10 @@
         <v>3</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J374" s="4"/>
       <c r="K374" s="15"/>
@@ -32031,7 +32031,7 @@
         <v>4</v>
       </c>
       <c r="F375" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J375" s="4"/>
       <c r="K375" s="15"/>
@@ -32041,7 +32041,7 @@
         <v>5</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J376" s="4"/>
       <c r="K376" s="15"/>
@@ -32051,10 +32051,10 @@
         <v>6</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J377" s="4"/>
       <c r="K377" s="15"/>
@@ -32065,16 +32065,16 @@
     </row>
     <row r="379" spans="1:11" ht="60">
       <c r="A379" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D379" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="F379" s="24" t="s">
         <v>616</v>
-      </c>
-      <c r="F379" s="24" t="s">
-        <v>617</v>
       </c>
       <c r="J379" s="4"/>
       <c r="K379" s="15"/>
@@ -32086,10 +32086,10 @@
         <v>1</v>
       </c>
       <c r="F380" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H380" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H380" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J380" s="4"/>
       <c r="K380" s="15"/>
@@ -32102,7 +32102,7 @@
         <v>21</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J381" s="4"/>
       <c r="K381" s="15"/>
@@ -32112,10 +32112,10 @@
         <v>3</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J382" s="4"/>
       <c r="K382" s="15"/>
@@ -32125,7 +32125,7 @@
         <v>4</v>
       </c>
       <c r="F383" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J383" s="4"/>
       <c r="K383" s="15"/>
@@ -32135,7 +32135,7 @@
         <v>5</v>
       </c>
       <c r="F384" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J384" s="4"/>
       <c r="K384" s="15"/>
@@ -32145,10 +32145,10 @@
         <v>6</v>
       </c>
       <c r="F385" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G385" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J385" s="4"/>
       <c r="K385" s="15"/>
@@ -32159,13 +32159,13 @@
     </row>
     <row r="387" spans="1:11" ht="45">
       <c r="A387" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>66</v>
@@ -32180,10 +32180,10 @@
         <v>1</v>
       </c>
       <c r="F388" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H388" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H388" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J388" s="4"/>
       <c r="K388" s="15"/>
@@ -32219,13 +32219,13 @@
         <v>4</v>
       </c>
       <c r="F391" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H391" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="J391" s="4"/>
       <c r="K391" s="15"/>
@@ -32235,10 +32235,10 @@
         <v>5</v>
       </c>
       <c r="F392" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G392" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G392" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J392" s="4"/>
       <c r="K392" s="15"/>
@@ -32248,13 +32248,13 @@
         <v>6</v>
       </c>
       <c r="F393" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G393" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G393" s="3" t="s">
+      <c r="H393" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="J393" s="4"/>
       <c r="K393" s="15"/>
@@ -32264,10 +32264,10 @@
         <v>7</v>
       </c>
       <c r="F394" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G394" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="G394" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="J394" s="4"/>
       <c r="K394" s="15"/>
@@ -32277,7 +32277,7 @@
         <v>8</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J395" s="4"/>
       <c r="K395" s="15"/>
@@ -32287,7 +32287,7 @@
         <v>9</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J396" s="4"/>
       <c r="K396" s="15"/>
@@ -32297,7 +32297,7 @@
         <v>10</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J397" s="4"/>
       <c r="K397" s="15"/>
@@ -32308,16 +32308,16 @@
     </row>
     <row r="399" spans="1:11" ht="75">
       <c r="A399" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D399" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F399" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="F399" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="J399" s="4"/>
       <c r="K399" s="15"/>
@@ -32329,10 +32329,10 @@
         <v>1</v>
       </c>
       <c r="F400" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H400" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H400" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J400" s="4"/>
       <c r="K400" s="15"/>
@@ -32368,10 +32368,10 @@
         <v>4</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J403" s="4"/>
       <c r="K403" s="15"/>
@@ -32381,10 +32381,10 @@
         <v>5</v>
       </c>
       <c r="F404" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G404" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G404" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J404" s="4"/>
       <c r="K404" s="15"/>
@@ -32394,10 +32394,10 @@
         <v>6</v>
       </c>
       <c r="F405" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G405" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="J405" s="4"/>
       <c r="K405" s="15"/>
@@ -32407,10 +32407,10 @@
         <v>7</v>
       </c>
       <c r="F406" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G406" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="J406" s="4"/>
       <c r="K406" s="15"/>
@@ -32420,10 +32420,10 @@
         <v>8</v>
       </c>
       <c r="F407" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G407" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="G407" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="J407" s="4"/>
       <c r="K407" s="15"/>
@@ -32433,10 +32433,10 @@
         <v>9</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J408" s="4"/>
       <c r="K408" s="15"/>
@@ -32447,16 +32447,16 @@
     </row>
     <row r="410" spans="1:11" ht="75">
       <c r="A410" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J410" s="4"/>
       <c r="K410" s="15"/>
@@ -32468,10 +32468,10 @@
         <v>1</v>
       </c>
       <c r="F411" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H411" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H411" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J411" s="4"/>
       <c r="K411" s="15"/>
@@ -32507,10 +32507,10 @@
         <v>4</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J414" s="4"/>
       <c r="K414" s="15"/>
@@ -32520,10 +32520,10 @@
         <v>5</v>
       </c>
       <c r="F415" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G415" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J415" s="4"/>
       <c r="K415" s="15"/>
@@ -32533,10 +32533,10 @@
         <v>6</v>
       </c>
       <c r="F416" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G416" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="J416" s="4"/>
       <c r="K416" s="15"/>
@@ -32546,10 +32546,10 @@
         <v>7</v>
       </c>
       <c r="F417" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G417" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="G417" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="J417" s="4"/>
       <c r="K417" s="15"/>
@@ -32560,16 +32560,16 @@
     </row>
     <row r="419" spans="1:11" ht="45">
       <c r="A419" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D419" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F419" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="F419" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="J419" s="4"/>
       <c r="K419" s="15"/>
@@ -32581,10 +32581,10 @@
         <v>1</v>
       </c>
       <c r="F420" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H420" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H420" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J420" s="4"/>
       <c r="K420" s="15"/>
@@ -32620,10 +32620,10 @@
         <v>4</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J423" s="4"/>
       <c r="K423" s="15"/>
@@ -32633,10 +32633,10 @@
         <v>5</v>
       </c>
       <c r="F424" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G424" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G424" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J424" s="4"/>
       <c r="K424" s="15"/>
@@ -32646,10 +32646,10 @@
         <v>6</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J425" s="4"/>
       <c r="K425" s="15"/>
@@ -32659,10 +32659,10 @@
         <v>7</v>
       </c>
       <c r="F426" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G426" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="G426" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="J426" s="4"/>
       <c r="K426" s="15"/>
@@ -32672,10 +32672,10 @@
         <v>8</v>
       </c>
       <c r="F427" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G427" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="G427" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="J427" s="4"/>
       <c r="K427" s="15"/>
@@ -32686,16 +32686,16 @@
     </row>
     <row r="429" spans="1:11" ht="45">
       <c r="A429" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D429" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F429" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="F429" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="J429" s="4"/>
       <c r="K429" s="15"/>
@@ -32707,10 +32707,10 @@
         <v>1</v>
       </c>
       <c r="F430" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H430" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H430" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J430" s="4"/>
       <c r="K430" s="15"/>
@@ -32746,10 +32746,10 @@
         <v>4</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J433" s="4"/>
       <c r="K433" s="15"/>
@@ -32759,10 +32759,10 @@
         <v>5</v>
       </c>
       <c r="F434" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G434" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J434" s="4"/>
       <c r="K434" s="15"/>
@@ -32772,10 +32772,10 @@
         <v>6</v>
       </c>
       <c r="F435" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G435" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="J435" s="4"/>
       <c r="K435" s="15"/>
@@ -32785,10 +32785,10 @@
         <v>7</v>
       </c>
       <c r="F436" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G436" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="J436" s="4"/>
       <c r="K436" s="15"/>
@@ -32799,16 +32799,16 @@
     </row>
     <row r="438" spans="1:11" ht="60">
       <c r="A438" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D438" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F438" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F438" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="J438" s="4"/>
       <c r="K438" s="15"/>
@@ -32820,10 +32820,10 @@
         <v>1</v>
       </c>
       <c r="F439" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H439" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H439" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J439" s="4"/>
       <c r="K439" s="15"/>
@@ -32859,10 +32859,10 @@
         <v>4</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J442" s="4"/>
       <c r="K442" s="15"/>
@@ -32872,10 +32872,10 @@
         <v>5</v>
       </c>
       <c r="F443" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G443" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J443" s="4"/>
       <c r="K443" s="15"/>
@@ -32887,10 +32887,10 @@
         <v>6</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J444" s="4"/>
       <c r="K444" s="14"/>
@@ -32900,10 +32900,10 @@
         <v>7</v>
       </c>
       <c r="F445" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G445" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="G445" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="J445" s="4"/>
       <c r="K445" s="15"/>
@@ -32914,16 +32914,16 @@
     </row>
     <row r="447" spans="1:11" ht="60">
       <c r="A447" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D447" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F447" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F447" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="J447" s="4"/>
       <c r="K447" s="15"/>
@@ -32935,10 +32935,10 @@
         <v>1</v>
       </c>
       <c r="F448" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H448" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H448" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J448" s="4"/>
       <c r="K448" s="15"/>
@@ -32974,10 +32974,10 @@
         <v>4</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J451" s="4"/>
       <c r="K451" s="15"/>
@@ -32987,10 +32987,10 @@
         <v>5</v>
       </c>
       <c r="F452" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G452" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G452" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J452" s="4"/>
       <c r="K452" s="15"/>
@@ -33000,10 +33000,10 @@
         <v>6</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J453" s="4"/>
       <c r="K453" s="15"/>
@@ -33013,10 +33013,10 @@
         <v>7</v>
       </c>
       <c r="F454" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G454" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="G454" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="J454" s="4"/>
       <c r="K454" s="15"/>
@@ -33029,7 +33029,7 @@
         <v>49</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J455" s="4"/>
       <c r="K455" s="15"/>
@@ -33040,16 +33040,16 @@
     </row>
     <row r="457" spans="1:11" ht="60">
       <c r="A457" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J457" s="4"/>
       <c r="K457" s="15"/>
@@ -33061,10 +33061,10 @@
         <v>1</v>
       </c>
       <c r="F458" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H458" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H458" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J458" s="4"/>
       <c r="K458" s="15"/>
@@ -33100,10 +33100,10 @@
         <v>4</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J461" s="4"/>
       <c r="K461" s="15"/>
@@ -33113,10 +33113,10 @@
         <v>5</v>
       </c>
       <c r="F462" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G462" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G462" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J462" s="4"/>
       <c r="K462" s="15"/>
@@ -33126,10 +33126,10 @@
         <v>6</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J463" s="4"/>
       <c r="K463" s="15"/>
@@ -33139,10 +33139,10 @@
         <v>7</v>
       </c>
       <c r="F464" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G464" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="G464" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="J464" s="4"/>
       <c r="K464" s="15"/>
@@ -33152,10 +33152,10 @@
         <v>8</v>
       </c>
       <c r="F465" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G465" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="G465" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="J465" s="4"/>
       <c r="K465" s="15"/>
@@ -33166,16 +33166,16 @@
     </row>
     <row r="467" spans="1:11" ht="60">
       <c r="A467" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D467" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F467" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F467" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="J467" s="4"/>
       <c r="K467" s="15"/>
@@ -33187,10 +33187,10 @@
         <v>1</v>
       </c>
       <c r="F468" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H468" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H468" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J468" s="4"/>
       <c r="K468" s="15"/>
@@ -33226,10 +33226,10 @@
         <v>4</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J471" s="4"/>
       <c r="K471" s="15"/>
@@ -33239,10 +33239,10 @@
         <v>5</v>
       </c>
       <c r="F472" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G472" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G472" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J472" s="4"/>
       <c r="K472" s="15"/>
@@ -33252,10 +33252,10 @@
         <v>6</v>
       </c>
       <c r="F473" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G473" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="G473" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="J473" s="4"/>
       <c r="K473" s="15"/>
@@ -33265,7 +33265,7 @@
         <v>7</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J474" s="4"/>
       <c r="K474" s="15"/>
@@ -33275,10 +33275,10 @@
         <v>8</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J475" s="4"/>
       <c r="K475" s="15"/>
@@ -33289,16 +33289,16 @@
     </row>
     <row r="477" spans="1:11" ht="45">
       <c r="A477" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J477" s="4"/>
       <c r="K477" s="15"/>
@@ -33310,10 +33310,10 @@
         <v>1</v>
       </c>
       <c r="F478" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H478" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H478" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J478" s="4"/>
       <c r="K478" s="15"/>
@@ -33349,10 +33349,10 @@
         <v>4</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J481" s="4"/>
       <c r="K481" s="15"/>
@@ -33362,10 +33362,10 @@
         <v>5</v>
       </c>
       <c r="F482" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G482" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G482" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J482" s="4"/>
       <c r="K482" s="15"/>
@@ -33375,10 +33375,10 @@
         <v>6</v>
       </c>
       <c r="F483" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G483" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="G483" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="J483" s="4"/>
       <c r="K483" s="15"/>
@@ -33388,7 +33388,7 @@
         <v>7</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J484" s="4"/>
       <c r="K484" s="15"/>
@@ -33398,7 +33398,7 @@
         <v>8</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J485" s="4"/>
       <c r="K485" s="15"/>
@@ -33409,16 +33409,16 @@
     </row>
     <row r="487" spans="1:11" ht="45">
       <c r="A487" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D487" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F487" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="F487" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="J487" s="4"/>
       <c r="K487" s="15"/>
@@ -33430,10 +33430,10 @@
         <v>1</v>
       </c>
       <c r="F488" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H488" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H488" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J488" s="4"/>
       <c r="K488" s="15"/>
@@ -33469,10 +33469,10 @@
         <v>4</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J491" s="4"/>
       <c r="K491" s="15"/>
@@ -33482,10 +33482,10 @@
         <v>5</v>
       </c>
       <c r="F492" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G492" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G492" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J492" s="4"/>
       <c r="K492" s="15"/>
@@ -33495,10 +33495,10 @@
         <v>6</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J493" s="4"/>
       <c r="K493" s="15"/>
@@ -33508,10 +33508,10 @@
         <v>7</v>
       </c>
       <c r="F494" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G494" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="G494" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="J494" s="4"/>
       <c r="K494" s="15"/>
@@ -33524,7 +33524,7 @@
         <v>49</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J495" s="4"/>
       <c r="K495" s="15"/>
@@ -33534,10 +33534,10 @@
         <v>9</v>
       </c>
       <c r="F496" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G496" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="G496" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J496" s="4"/>
       <c r="K496" s="15"/>
@@ -33548,16 +33548,16 @@
     </row>
     <row r="498" spans="1:11" ht="45">
       <c r="A498" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D498" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F498" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F498" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="J498" s="4"/>
       <c r="K498" s="15"/>
@@ -33569,10 +33569,10 @@
         <v>1</v>
       </c>
       <c r="F499" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H499" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H499" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J499" s="4"/>
       <c r="K499" s="15"/>
@@ -33608,10 +33608,10 @@
         <v>4</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J502" s="4"/>
       <c r="K502" s="15"/>
@@ -33621,10 +33621,10 @@
         <v>5</v>
       </c>
       <c r="F503" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G503" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G503" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J503" s="4"/>
       <c r="K503" s="15"/>
@@ -33634,10 +33634,10 @@
         <v>6</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J504" s="4"/>
       <c r="K504" s="15"/>
@@ -33647,10 +33647,10 @@
         <v>7</v>
       </c>
       <c r="F505" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G505" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="G505" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="J505" s="4"/>
       <c r="K505" s="15"/>
@@ -33661,16 +33661,16 @@
     </row>
     <row r="507" spans="1:11" ht="30">
       <c r="A507" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D507" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F507" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="F507" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="J507" s="4"/>
       <c r="K507" s="15"/>
@@ -33682,10 +33682,10 @@
         <v>1</v>
       </c>
       <c r="F508" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H508" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H508" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J508" s="4"/>
       <c r="K508" s="15"/>
@@ -33721,10 +33721,10 @@
         <v>4</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J511" s="4"/>
       <c r="K511" s="15"/>
@@ -33734,10 +33734,10 @@
         <v>5</v>
       </c>
       <c r="F512" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G512" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G512" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J512" s="4"/>
       <c r="K512" s="15"/>
@@ -33747,10 +33747,10 @@
         <v>6</v>
       </c>
       <c r="F513" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G513" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="G513" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="J513" s="4"/>
       <c r="K513" s="15"/>
@@ -33760,10 +33760,10 @@
         <v>7</v>
       </c>
       <c r="F514" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G514" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="G514" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="J514" s="4"/>
       <c r="K514" s="15"/>
@@ -33774,16 +33774,16 @@
     </row>
     <row r="516" spans="1:11" ht="30">
       <c r="A516" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D516" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F516" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F516" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="J516" s="4"/>
       <c r="K516" s="15"/>
@@ -33795,10 +33795,10 @@
         <v>1</v>
       </c>
       <c r="F517" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H517" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H517" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J517" s="4"/>
       <c r="K517" s="15"/>
@@ -33834,10 +33834,10 @@
         <v>4</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J520" s="4"/>
       <c r="K520" s="15"/>
@@ -33847,10 +33847,10 @@
         <v>5</v>
       </c>
       <c r="F521" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G521" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G521" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J521" s="4"/>
       <c r="K521" s="15"/>
@@ -33860,10 +33860,10 @@
         <v>6</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J522" s="4"/>
       <c r="K522" s="15"/>
@@ -33873,10 +33873,10 @@
         <v>7</v>
       </c>
       <c r="F523" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G523" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="G523" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="J523" s="4"/>
       <c r="K523" s="15"/>
@@ -33887,16 +33887,16 @@
     </row>
     <row r="525" spans="1:11" ht="30">
       <c r="A525" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D525" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F525" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F525" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="J525" s="4"/>
       <c r="K525" s="15"/>
@@ -33908,10 +33908,10 @@
         <v>1</v>
       </c>
       <c r="F526" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H526" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H526" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J526" s="4"/>
       <c r="K526" s="15"/>
@@ -33947,10 +33947,10 @@
         <v>4</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J529" s="4"/>
       <c r="K529" s="15"/>
@@ -33960,10 +33960,10 @@
         <v>5</v>
       </c>
       <c r="F530" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G530" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G530" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J530" s="4"/>
       <c r="K530" s="15"/>
@@ -33973,10 +33973,10 @@
         <v>6</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J531" s="4"/>
       <c r="K531" s="15"/>
@@ -33986,10 +33986,10 @@
         <v>7</v>
       </c>
       <c r="F532" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G532" s="21" t="s">
         <v>411</v>
-      </c>
-      <c r="G532" s="21" t="s">
-        <v>412</v>
       </c>
       <c r="J532" s="4"/>
       <c r="K532" s="15"/>
@@ -34000,16 +34000,16 @@
     </row>
     <row r="534" spans="1:11" ht="45">
       <c r="A534" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J534" s="4"/>
       <c r="K534" s="15"/>
@@ -34021,10 +34021,10 @@
         <v>1</v>
       </c>
       <c r="F535" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H535" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H535" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J535" s="4"/>
       <c r="K535" s="15"/>
@@ -34060,10 +34060,10 @@
         <v>4</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J538" s="4"/>
       <c r="K538" s="15"/>
@@ -34073,10 +34073,10 @@
         <v>5</v>
       </c>
       <c r="F539" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G539" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J539" s="4"/>
       <c r="K539" s="15"/>
@@ -34086,10 +34086,10 @@
         <v>6</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J540" s="4"/>
       <c r="K540" s="15"/>
@@ -34099,10 +34099,10 @@
         <v>7</v>
       </c>
       <c r="F541" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G541" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="G541" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="J541" s="4"/>
       <c r="K541" s="15"/>
@@ -34112,10 +34112,10 @@
         <v>8</v>
       </c>
       <c r="F542" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G542" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="G542" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="J542" s="4"/>
       <c r="K542" s="15"/>
@@ -34125,10 +34125,10 @@
         <v>9</v>
       </c>
       <c r="F543" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G543" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="G543" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="J543" s="4"/>
       <c r="K543" s="15"/>
@@ -34143,16 +34143,16 @@
     </row>
     <row r="546" spans="1:11" ht="60">
       <c r="A546" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D546" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F546" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="F546" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="J546" s="4"/>
       <c r="K546" s="15"/>
@@ -34164,10 +34164,10 @@
         <v>1</v>
       </c>
       <c r="F547" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H547" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H547" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J547" s="4"/>
       <c r="K547" s="15"/>
@@ -34203,10 +34203,10 @@
         <v>4</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G550" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J550" s="4"/>
       <c r="K550" s="15"/>
@@ -34216,10 +34216,10 @@
         <v>5</v>
       </c>
       <c r="F551" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G551" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G551" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J551" s="4"/>
       <c r="K551" s="15"/>
@@ -34229,10 +34229,10 @@
         <v>6</v>
       </c>
       <c r="F552" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G552" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="J552" s="4"/>
       <c r="K552" s="15"/>
@@ -34242,10 +34242,10 @@
         <v>7</v>
       </c>
       <c r="F553" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J553" s="4"/>
       <c r="K553" s="15"/>
@@ -34256,16 +34256,16 @@
     </row>
     <row r="555" spans="1:11" ht="45">
       <c r="A555" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D555" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F555" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="F555" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="J555" s="4"/>
       <c r="K555" s="15"/>
@@ -34277,10 +34277,10 @@
         <v>1</v>
       </c>
       <c r="F556" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H556" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H556" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J556" s="4"/>
       <c r="K556" s="15"/>
@@ -34316,10 +34316,10 @@
         <v>4</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G559" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J559" s="4"/>
       <c r="K559" s="15"/>
@@ -34329,10 +34329,10 @@
         <v>5</v>
       </c>
       <c r="F560" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G560" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G560" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J560" s="4"/>
       <c r="K560" s="15"/>
@@ -34342,10 +34342,10 @@
         <v>6</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J561" s="4"/>
       <c r="K561" s="15"/>
@@ -34355,10 +34355,10 @@
         <v>7</v>
       </c>
       <c r="F562" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G562" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="G562" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="J562" s="4"/>
       <c r="K562" s="15"/>
@@ -34368,10 +34368,10 @@
         <v>8</v>
       </c>
       <c r="F563" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G563" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="G563" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="J563" s="4"/>
       <c r="K563" s="15"/>
@@ -34382,16 +34382,16 @@
     </row>
     <row r="565" spans="1:11" ht="45">
       <c r="A565" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D565" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F565" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="F565" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="J565" s="4"/>
       <c r="K565" s="15"/>
@@ -34403,10 +34403,10 @@
         <v>1</v>
       </c>
       <c r="F566" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H566" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H566" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J566" s="4"/>
       <c r="K566" s="15"/>
@@ -34442,10 +34442,10 @@
         <v>4</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G569" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J569" s="4"/>
       <c r="K569" s="15"/>
@@ -34455,10 +34455,10 @@
         <v>5</v>
       </c>
       <c r="F570" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G570" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G570" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J570" s="4"/>
       <c r="K570" s="15"/>
@@ -34468,10 +34468,10 @@
         <v>6</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G571" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J571" s="4"/>
       <c r="K571" s="15"/>
@@ -34481,10 +34481,10 @@
         <v>7</v>
       </c>
       <c r="F572" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G572" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="G572" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="J572" s="4"/>
       <c r="K572" s="15"/>
@@ -34495,16 +34495,16 @@
     </row>
     <row r="574" spans="1:11" ht="60">
       <c r="A574" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J574" s="4"/>
       <c r="K574" s="15"/>
@@ -34516,10 +34516,10 @@
         <v>1</v>
       </c>
       <c r="F575" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H575" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H575" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J575" s="4"/>
       <c r="K575" s="15"/>
@@ -34555,10 +34555,10 @@
         <v>4</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G578" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J578" s="4"/>
       <c r="K578" s="15"/>
@@ -34568,10 +34568,10 @@
         <v>5</v>
       </c>
       <c r="F579" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G579" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G579" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J579" s="4"/>
       <c r="K579" s="15"/>
@@ -34581,10 +34581,10 @@
         <v>6</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G580" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J580" s="4"/>
       <c r="K580" s="15"/>
@@ -34594,10 +34594,10 @@
         <v>7</v>
       </c>
       <c r="F581" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G581" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="G581" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="J581" s="4"/>
       <c r="K581" s="15"/>
@@ -34607,10 +34607,10 @@
         <v>8</v>
       </c>
       <c r="F582" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G582" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="G582" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="J582" s="4"/>
       <c r="K582" s="15"/>
@@ -34620,10 +34620,10 @@
         <v>9</v>
       </c>
       <c r="F583" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G583" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="G583" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="J583" s="4"/>
       <c r="K583" s="15"/>
@@ -34633,10 +34633,10 @@
         <v>10</v>
       </c>
       <c r="F584" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G584" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="G584" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="J584" s="4"/>
       <c r="K584" s="15"/>
@@ -34651,13 +34651,13 @@
     </row>
     <row r="587" spans="1:11" ht="45">
       <c r="A587" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F587" s="3" t="s">
         <v>66</v>
@@ -34672,10 +34672,10 @@
         <v>1</v>
       </c>
       <c r="F588" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H588" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H588" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J588" s="15"/>
       <c r="K588" s="15"/>
@@ -34711,10 +34711,10 @@
         <v>4</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G591" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J591" s="15"/>
       <c r="K591" s="15"/>
@@ -34724,10 +34724,10 @@
         <v>5</v>
       </c>
       <c r="F592" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G592" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G592" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J592" s="15"/>
       <c r="K592" s="15"/>
@@ -34737,10 +34737,10 @@
         <v>6</v>
       </c>
       <c r="F593" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G593" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="G593" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="J593" s="15"/>
       <c r="K593" s="15"/>
@@ -34750,10 +34750,10 @@
         <v>7</v>
       </c>
       <c r="F594" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G594" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="G594" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="J594" s="15"/>
       <c r="K594" s="15"/>
@@ -34764,16 +34764,16 @@
     </row>
     <row r="596" spans="1:11" ht="45">
       <c r="A596" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D596" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F596" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="F596" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="J596" s="15"/>
       <c r="K596" s="15"/>
@@ -34785,10 +34785,10 @@
         <v>1</v>
       </c>
       <c r="F597" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H597" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H597" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J597" s="15"/>
       <c r="K597" s="15"/>
@@ -34824,10 +34824,10 @@
         <v>4</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G600" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J600" s="15"/>
       <c r="K600" s="15"/>
@@ -34837,10 +34837,10 @@
         <v>5</v>
       </c>
       <c r="F601" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G601" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G601" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J601" s="15"/>
       <c r="K601" s="15"/>
@@ -34850,10 +34850,10 @@
         <v>6</v>
       </c>
       <c r="F602" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G602" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G602" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="J602" s="15"/>
       <c r="K602" s="15"/>
@@ -34863,10 +34863,10 @@
         <v>7</v>
       </c>
       <c r="F603" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G603" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="G603" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="J603" s="15"/>
       <c r="K603" s="15"/>
@@ -34876,10 +34876,10 @@
         <v>8</v>
       </c>
       <c r="F604" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G604" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="G604" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="J604" s="15"/>
       <c r="K604" s="15"/>
@@ -34890,16 +34890,16 @@
     </row>
     <row r="606" spans="1:11" ht="45">
       <c r="A606" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J606" s="15"/>
       <c r="K606" s="15"/>
@@ -34911,10 +34911,10 @@
         <v>1</v>
       </c>
       <c r="F607" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H607" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H607" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J607" s="15"/>
       <c r="K607" s="15"/>
@@ -34950,10 +34950,10 @@
         <v>4</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G610" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J610" s="15"/>
       <c r="K610" s="15"/>
@@ -34963,10 +34963,10 @@
         <v>5</v>
       </c>
       <c r="F611" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G611" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G611" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J611" s="15"/>
       <c r="K611" s="15"/>
@@ -34976,10 +34976,10 @@
         <v>6</v>
       </c>
       <c r="F612" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G612" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G612" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="J612" s="15"/>
       <c r="K612" s="15"/>
@@ -34989,10 +34989,10 @@
         <v>7</v>
       </c>
       <c r="F613" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G613" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="G613" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="J613" s="15"/>
       <c r="K613" s="15"/>
@@ -35003,16 +35003,16 @@
     </row>
     <row r="615" spans="1:11" ht="45">
       <c r="A615" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F615" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J615" s="15"/>
       <c r="K615" s="15"/>
@@ -35024,10 +35024,10 @@
         <v>1</v>
       </c>
       <c r="F616" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H616" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H616" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J616" s="15"/>
       <c r="K616" s="15"/>
@@ -35063,10 +35063,10 @@
         <v>4</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G619" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J619" s="15"/>
       <c r="K619" s="15"/>
@@ -35076,10 +35076,10 @@
         <v>5</v>
       </c>
       <c r="F620" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G620" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G620" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J620" s="15"/>
       <c r="K620" s="15"/>
@@ -35089,10 +35089,10 @@
         <v>6</v>
       </c>
       <c r="F621" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G621" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G621" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="J621" s="15"/>
       <c r="K621" s="15"/>
@@ -35102,10 +35102,10 @@
         <v>7</v>
       </c>
       <c r="F622" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G622" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="G622" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="J622" s="15"/>
       <c r="K622" s="15"/>
@@ -35115,10 +35115,10 @@
         <v>8</v>
       </c>
       <c r="F623" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G623" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="G623" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="J623" s="15"/>
       <c r="K623" s="15"/>
@@ -35128,10 +35128,10 @@
         <v>9</v>
       </c>
       <c r="F624" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G624" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="G624" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="J624" s="15"/>
       <c r="K624" s="15"/>
@@ -35141,10 +35141,10 @@
         <v>10</v>
       </c>
       <c r="F625" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G625" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="G625" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="J625" s="15"/>
       <c r="K625" s="15"/>
@@ -35155,16 +35155,16 @@
     </row>
     <row r="627" spans="1:11" ht="45">
       <c r="A627" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D627" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F627" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="F627" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="J627" s="15"/>
       <c r="K627" s="15"/>
@@ -35176,10 +35176,10 @@
         <v>1</v>
       </c>
       <c r="F628" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H628" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H628" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J628" s="15"/>
       <c r="K628" s="15"/>
@@ -35215,10 +35215,10 @@
         <v>4</v>
       </c>
       <c r="F631" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G631" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J631" s="15"/>
       <c r="K631" s="15"/>
@@ -35228,10 +35228,10 @@
         <v>5</v>
       </c>
       <c r="F632" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G632" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G632" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J632" s="15"/>
       <c r="K632" s="15"/>
@@ -35241,10 +35241,10 @@
         <v>6</v>
       </c>
       <c r="F633" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G633" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="G633" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="J633" s="15"/>
       <c r="K633" s="15"/>
@@ -35254,10 +35254,10 @@
         <v>7</v>
       </c>
       <c r="F634" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G634" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J634" s="15"/>
       <c r="K634" s="15"/>
@@ -35268,16 +35268,16 @@
     </row>
     <row r="636" spans="1:11" ht="45">
       <c r="A636" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D636" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F636" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="F636" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="J636" s="15"/>
       <c r="K636" s="15"/>
@@ -35289,10 +35289,10 @@
         <v>1</v>
       </c>
       <c r="F637" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H637" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H637" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J637" s="15"/>
       <c r="K637" s="15"/>
@@ -35328,10 +35328,10 @@
         <v>4</v>
       </c>
       <c r="F640" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G640" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J640" s="15"/>
       <c r="K640" s="15"/>
@@ -35341,10 +35341,10 @@
         <v>5</v>
       </c>
       <c r="F641" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G641" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G641" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J641" s="15"/>
       <c r="K641" s="15"/>
@@ -35354,10 +35354,10 @@
         <v>6</v>
       </c>
       <c r="F642" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G642" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="G642" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="J642" s="15"/>
       <c r="K642" s="15"/>
@@ -35367,10 +35367,10 @@
         <v>7</v>
       </c>
       <c r="F643" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G643" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="G643" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="J643" s="15"/>
       <c r="K643" s="15"/>
@@ -35380,10 +35380,10 @@
         <v>8</v>
       </c>
       <c r="F644" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G644" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="G644" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="J644" s="15"/>
       <c r="K644" s="15"/>
@@ -35393,10 +35393,10 @@
         <v>9</v>
       </c>
       <c r="F645" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G645" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G645" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="J645" s="15"/>
       <c r="K645" s="15"/>
@@ -35407,16 +35407,16 @@
     </row>
     <row r="647" spans="1:11" ht="45">
       <c r="A647" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J647" s="15"/>
       <c r="K647" s="15"/>
@@ -35428,10 +35428,10 @@
         <v>1</v>
       </c>
       <c r="F648" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H648" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H648" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J648" s="15"/>
       <c r="K648" s="15"/>
@@ -35467,10 +35467,10 @@
         <v>4</v>
       </c>
       <c r="F651" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G651" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J651" s="15"/>
       <c r="K651" s="15"/>
@@ -35480,10 +35480,10 @@
         <v>5</v>
       </c>
       <c r="F652" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G652" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G652" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="J652" s="15"/>
       <c r="K652" s="15"/>
@@ -35493,10 +35493,10 @@
         <v>6</v>
       </c>
       <c r="F653" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G653" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="G653" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="J653" s="15"/>
       <c r="K653" s="15"/>
@@ -35506,10 +35506,10 @@
         <v>7</v>
       </c>
       <c r="F654" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G654" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="G654" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="J654" s="15"/>
       <c r="K654" s="15"/>
@@ -35519,10 +35519,10 @@
         <v>8</v>
       </c>
       <c r="F655" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G655" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="G655" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="J655" s="15"/>
       <c r="K655" s="15"/>
@@ -35532,10 +35532,10 @@
         <v>9</v>
       </c>
       <c r="F656" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G656" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="G656" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="J656" s="15"/>
       <c r="K656" s="15"/>
@@ -35546,10 +35546,10 @@
         <v>10</v>
       </c>
       <c r="F657" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G657" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="G657" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="J657" s="15"/>
       <c r="K657" s="15"/>
@@ -35561,13 +35561,13 @@
     </row>
     <row r="659" spans="1:11" ht="45">
       <c r="A659" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F659" s="3" t="s">
         <v>66</v>
@@ -35582,10 +35582,10 @@
         <v>1</v>
       </c>
       <c r="F660" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H660" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H660" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J660" s="15"/>
       <c r="K660" s="15"/>
@@ -35624,10 +35624,10 @@
         <v>4</v>
       </c>
       <c r="F663" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G663" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J663" s="15"/>
       <c r="K663" s="15"/>
@@ -35638,10 +35638,10 @@
         <v>5</v>
       </c>
       <c r="F664" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G664" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="G664" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="J664" s="15"/>
       <c r="K664" s="15"/>
@@ -35649,10 +35649,10 @@
     <row r="665" spans="1:11">
       <c r="D665" s="3"/>
       <c r="F665" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G665" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="G665" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="J665" s="15"/>
       <c r="K665" s="15"/>
@@ -35664,16 +35664,16 @@
     </row>
     <row r="667" spans="1:11" ht="45">
       <c r="A667" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D667" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F667" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="F667" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="J667" s="15"/>
       <c r="K667" s="15"/>
@@ -35685,10 +35685,10 @@
         <v>1</v>
       </c>
       <c r="F668" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H668" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H668" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J668" s="15"/>
       <c r="K668" s="15"/>
@@ -35711,10 +35711,10 @@
         <v>3</v>
       </c>
       <c r="F670" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G670" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="G670" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="J670" s="15"/>
       <c r="K670" s="15"/>
@@ -35725,16 +35725,16 @@
     </row>
     <row r="672" spans="1:11" ht="45">
       <c r="A672" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F672" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J672" s="15"/>
       <c r="K672" s="15"/>
@@ -35746,10 +35746,10 @@
         <v>1</v>
       </c>
       <c r="F673" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H673" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H673" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J673" s="15"/>
       <c r="K673" s="15"/>
@@ -35772,10 +35772,10 @@
         <v>3</v>
       </c>
       <c r="F675" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G675" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="G675" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="J675" s="15"/>
       <c r="K675" s="15"/>
@@ -35785,10 +35785,10 @@
         <v>4</v>
       </c>
       <c r="F676" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G676" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="G676" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="J676" s="15"/>
       <c r="K676" s="15"/>
@@ -35799,16 +35799,16 @@
     </row>
     <row r="678" spans="1:11" ht="45">
       <c r="A678" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J678" s="15"/>
       <c r="K678" s="15"/>
@@ -35820,10 +35820,10 @@
         <v>1</v>
       </c>
       <c r="F679" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H679" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H679" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J679" s="15"/>
       <c r="K679" s="15"/>
@@ -35846,10 +35846,10 @@
         <v>3</v>
       </c>
       <c r="F681" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G681" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J681" s="15"/>
       <c r="K681" s="15"/>
@@ -35859,10 +35859,10 @@
         <v>4</v>
       </c>
       <c r="F682" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G682" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="G682" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="J682" s="15"/>
       <c r="K682" s="15"/>
@@ -35872,7 +35872,7 @@
         <v>5</v>
       </c>
       <c r="F683" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J683" s="15"/>
       <c r="K683" s="15"/>
@@ -35882,10 +35882,10 @@
         <v>6</v>
       </c>
       <c r="F684" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G684" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="G684" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="J684" s="15"/>
       <c r="K684" s="15"/>
@@ -35895,10 +35895,10 @@
         <v>7</v>
       </c>
       <c r="F685" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G685" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="G685" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="J685" s="15"/>
       <c r="K685" s="15"/>
@@ -35909,16 +35909,16 @@
     </row>
     <row r="687" spans="1:11" ht="30">
       <c r="A687" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D687" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F687" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="F687" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="J687" s="15"/>
       <c r="K687" s="15"/>
@@ -35930,10 +35930,10 @@
         <v>1</v>
       </c>
       <c r="F688" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H688" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H688" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J688" s="15"/>
       <c r="K688" s="15"/>
@@ -35956,10 +35956,10 @@
         <v>3</v>
       </c>
       <c r="F690" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G690" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="G690" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="J690" s="15"/>
       <c r="K690" s="15"/>
@@ -35969,10 +35969,10 @@
         <v>4</v>
       </c>
       <c r="F691" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G691" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="G691" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="J691" s="15"/>
       <c r="K691" s="15"/>
@@ -35982,7 +35982,7 @@
         <v>5</v>
       </c>
       <c r="F692" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J692" s="15"/>
       <c r="K692" s="15"/>
@@ -35992,7 +35992,7 @@
         <v>6</v>
       </c>
       <c r="F693" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J693" s="15"/>
       <c r="K693" s="15"/>
@@ -36002,7 +36002,7 @@
         <v>7</v>
       </c>
       <c r="F694" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J694" s="15"/>
       <c r="K694" s="15"/>
@@ -36012,7 +36012,7 @@
         <v>8</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J695" s="15"/>
       <c r="K695" s="15"/>
@@ -36023,16 +36023,16 @@
     </row>
     <row r="697" spans="1:11" ht="30">
       <c r="A697" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D697" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F697" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="F697" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="J697" s="15"/>
       <c r="K697" s="15"/>
@@ -36044,10 +36044,10 @@
         <v>1</v>
       </c>
       <c r="F698" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H698" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H698" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J698" s="15"/>
       <c r="K698" s="15"/>
@@ -36070,10 +36070,10 @@
         <v>3</v>
       </c>
       <c r="F700" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G700" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="G700" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="J700" s="15"/>
       <c r="K700" s="15"/>
@@ -36083,10 +36083,10 @@
         <v>4</v>
       </c>
       <c r="F701" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G701" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="G701" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="J701" s="15"/>
       <c r="K701" s="15"/>
@@ -36096,10 +36096,10 @@
         <v>5</v>
       </c>
       <c r="F702" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G702" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="J702" s="15"/>
       <c r="K702" s="15"/>
@@ -36110,16 +36110,16 @@
     </row>
     <row r="704" spans="1:11" ht="45">
       <c r="A704" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F704" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J704" s="15"/>
       <c r="K704" s="15"/>
@@ -36131,10 +36131,10 @@
         <v>1</v>
       </c>
       <c r="F705" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H705" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H705" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J705" s="15"/>
       <c r="K705" s="15"/>
@@ -36157,10 +36157,10 @@
         <v>3</v>
       </c>
       <c r="F707" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G707" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="G707" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="J707" s="15"/>
       <c r="K707" s="15"/>
@@ -36170,10 +36170,10 @@
         <v>4</v>
       </c>
       <c r="F708" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G708" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G708" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="J708" s="15"/>
       <c r="K708" s="15"/>
@@ -36183,10 +36183,10 @@
         <v>5</v>
       </c>
       <c r="F709" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G709" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="G709" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="J709" s="15"/>
       <c r="K709" s="15"/>
@@ -36197,16 +36197,16 @@
     </row>
     <row r="711" spans="1:11" ht="30">
       <c r="A711" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F711" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J711" s="15"/>
       <c r="K711" s="15"/>
@@ -36218,10 +36218,10 @@
         <v>1</v>
       </c>
       <c r="F712" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H712" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H712" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J712" s="15"/>
       <c r="K712" s="15"/>
@@ -36244,10 +36244,10 @@
         <v>3</v>
       </c>
       <c r="F714" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G714" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J714" s="15"/>
       <c r="K714" s="15"/>
@@ -36257,10 +36257,10 @@
         <v>4</v>
       </c>
       <c r="F715" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G715" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J715" s="15"/>
       <c r="K715" s="15"/>
@@ -36270,10 +36270,10 @@
         <v>5</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J716" s="15"/>
       <c r="K716" s="15"/>
@@ -36284,16 +36284,16 @@
     </row>
     <row r="718" spans="1:11" ht="30">
       <c r="A718" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F718" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J718" s="15"/>
       <c r="K718" s="15"/>
@@ -36305,10 +36305,10 @@
         <v>1</v>
       </c>
       <c r="F719" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H719" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H719" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J719" s="15"/>
       <c r="K719" s="15"/>
@@ -36331,10 +36331,10 @@
         <v>3</v>
       </c>
       <c r="F721" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J721" s="15"/>
       <c r="K721" s="15"/>
@@ -36344,10 +36344,10 @@
         <v>4</v>
       </c>
       <c r="F722" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G722" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="G722" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="J722" s="15"/>
       <c r="K722" s="15"/>
@@ -36357,10 +36357,10 @@
         <v>5</v>
       </c>
       <c r="F723" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G723" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="G723" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="J723" s="15"/>
       <c r="K723" s="15"/>
@@ -36371,22 +36371,22 @@
     </row>
     <row r="725" spans="1:11" ht="30">
       <c r="A725" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E725" s="5">
         <v>1</v>
       </c>
       <c r="F725" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H725" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H725" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J725" s="15"/>
       <c r="K725" s="15"/>
@@ -36411,10 +36411,10 @@
         <v>3</v>
       </c>
       <c r="F727" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G727" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="G727" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="J727" s="15"/>
       <c r="K727" s="15"/>
@@ -36425,16 +36425,16 @@
     </row>
     <row r="729" spans="1:11" ht="30">
       <c r="A729" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D729" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F729" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="F729" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="J729" s="15"/>
       <c r="K729" s="15"/>
@@ -36446,10 +36446,10 @@
         <v>1</v>
       </c>
       <c r="F730" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H730" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H730" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J730" s="15"/>
       <c r="K730" s="15"/>
@@ -36472,10 +36472,10 @@
         <v>3</v>
       </c>
       <c r="F732" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G732" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="J732" s="15"/>
       <c r="K732" s="15"/>
@@ -36486,16 +36486,16 @@
     </row>
     <row r="734" spans="1:11">
       <c r="A734" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D734" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F734" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="F734" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="J734" s="15"/>
       <c r="K734" s="15"/>
@@ -36506,10 +36506,10 @@
         <v>1</v>
       </c>
       <c r="F735" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H735" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H735" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J735" s="15"/>
       <c r="K735" s="15"/>
@@ -36519,10 +36519,10 @@
         <v>2</v>
       </c>
       <c r="F736" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G736" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="G736" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="J736" s="15"/>
       <c r="K736" s="15"/>
@@ -36532,7 +36532,7 @@
         <v>3</v>
       </c>
       <c r="F737" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J737" s="15"/>
       <c r="K737" s="15"/>
@@ -36542,10 +36542,10 @@
         <v>4</v>
       </c>
       <c r="F738" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G738" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="J738" s="15"/>
       <c r="K738" s="15"/>
@@ -36555,10 +36555,10 @@
         <v>5</v>
       </c>
       <c r="F739" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G739" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="G739" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="J739" s="15"/>
       <c r="K739" s="15"/>
@@ -36568,10 +36568,10 @@
         <v>6</v>
       </c>
       <c r="F740" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G740" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="G740" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="J740" s="15"/>
       <c r="K740" s="15"/>
@@ -36581,7 +36581,7 @@
         <v>7</v>
       </c>
       <c r="F741" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J741" s="15"/>
       <c r="K741" s="15"/>
@@ -36591,10 +36591,10 @@
         <v>8</v>
       </c>
       <c r="F742" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G742" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J742" s="15"/>
       <c r="K742" s="15"/>
@@ -36605,16 +36605,16 @@
     </row>
     <row r="744" spans="1:11" ht="30">
       <c r="A744" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D744" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F744" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J744" s="15"/>
       <c r="K744" s="15"/>
@@ -36626,10 +36626,10 @@
         <v>1</v>
       </c>
       <c r="F745" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H745" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H745" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J745" s="15"/>
       <c r="K745" s="15"/>
@@ -36639,10 +36639,10 @@
         <v>2</v>
       </c>
       <c r="F746" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G746" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="G746" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="J746" s="15"/>
       <c r="K746" s="15"/>
@@ -36652,10 +36652,10 @@
         <v>3</v>
       </c>
       <c r="F747" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H747" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J747" s="15"/>
       <c r="K747" s="15"/>
@@ -36665,10 +36665,10 @@
         <v>4</v>
       </c>
       <c r="F748" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G748" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="G748" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="J748" s="15"/>
       <c r="K748" s="15"/>
@@ -36678,10 +36678,10 @@
         <v>5</v>
       </c>
       <c r="F749" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="G749" s="24" t="s">
         <v>622</v>
-      </c>
-      <c r="G749" s="24" t="s">
-        <v>623</v>
       </c>
       <c r="J749" s="15"/>
       <c r="K749" s="15"/>
@@ -36691,13 +36691,13 @@
         <v>6</v>
       </c>
       <c r="F750" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="G750" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="G750" s="24" t="s">
-        <v>625</v>
-      </c>
       <c r="H750" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J750" s="15"/>
       <c r="K750" s="15"/>
@@ -36707,10 +36707,10 @@
         <v>7</v>
       </c>
       <c r="F751" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="G751" s="24" t="s">
         <v>628</v>
-      </c>
-      <c r="G751" s="24" t="s">
-        <v>629</v>
       </c>
       <c r="J751" s="15"/>
       <c r="K751" s="15"/>
@@ -36720,10 +36720,10 @@
         <v>8</v>
       </c>
       <c r="F752" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G752" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J752" s="15"/>
       <c r="K752" s="15"/>
@@ -36735,16 +36735,16 @@
     </row>
     <row r="754" spans="1:11" ht="30">
       <c r="A754" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D754" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F754" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J754" s="15"/>
       <c r="K754" s="15"/>
@@ -36756,10 +36756,10 @@
         <v>1</v>
       </c>
       <c r="F755" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H755" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H755" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J755" s="15"/>
       <c r="K755" s="15"/>
@@ -36771,10 +36771,10 @@
         <v>2</v>
       </c>
       <c r="F756" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G756" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="G756" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="J756" s="15"/>
       <c r="K756" s="15"/>
@@ -36786,10 +36786,10 @@
         <v>3</v>
       </c>
       <c r="F757" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H757" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J757" s="15"/>
       <c r="K757" s="15"/>
@@ -36801,10 +36801,10 @@
         <v>4</v>
       </c>
       <c r="F758" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G758" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="G758" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="J758" s="15"/>
       <c r="K758" s="15"/>
@@ -36816,10 +36816,10 @@
         <v>5</v>
       </c>
       <c r="F759" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="G759" s="24" t="s">
         <v>622</v>
-      </c>
-      <c r="G759" s="24" t="s">
-        <v>623</v>
       </c>
       <c r="J759" s="15"/>
       <c r="K759" s="15"/>
@@ -36831,10 +36831,10 @@
         <v>6</v>
       </c>
       <c r="F760" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="G760" s="24" t="s">
         <v>631</v>
-      </c>
-      <c r="G760" s="24" t="s">
-        <v>632</v>
       </c>
       <c r="J760" s="15"/>
       <c r="K760" s="15"/>
@@ -36846,10 +36846,10 @@
         <v>7</v>
       </c>
       <c r="F761" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="G761" s="24" t="s">
         <v>633</v>
-      </c>
-      <c r="G761" s="24" t="s">
-        <v>634</v>
       </c>
       <c r="J761" s="15"/>
       <c r="K761" s="15"/>
@@ -36870,22 +36870,22 @@
     </row>
     <row r="764" spans="1:11" ht="29.25" customHeight="1">
       <c r="A764" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E764" s="5">
         <v>1</v>
       </c>
       <c r="F764" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H764" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="H764" s="29" t="s">
-        <v>638</v>
       </c>
       <c r="J764" s="15"/>
       <c r="K764" s="15"/>
@@ -36895,10 +36895,10 @@
         <v>2</v>
       </c>
       <c r="F765" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G765" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="G765" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="J765" s="15"/>
       <c r="K765" s="15"/>
